--- a/src/test/java/resources/dataMyTest1.xlsx
+++ b/src/test/java/resources/dataMyTest1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{9B435D5B-E791-4592-8405-143A4797AE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FEE0EEB-ACF9-4C95-9CAB-BBAAFA4A4467}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{9B435D5B-E791-4592-8405-143A4797AE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36733B18-A2B7-4025-A3B3-3FB95A9B16F3}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>email</t>
   </si>
@@ -62,31 +62,25 @@
     <t>svdv</t>
   </si>
   <si>
-    <t>can</t>
-  </si>
-  <si>
-    <t>cem</t>
-  </si>
-  <si>
-    <t>dem</t>
-  </si>
-  <si>
-    <t>lk</t>
-  </si>
-  <si>
-    <t>lj</t>
-  </si>
-  <si>
-    <t>jh</t>
-  </si>
-  <si>
-    <t>er</t>
-  </si>
-  <si>
-    <t>rf</t>
-  </si>
-  <si>
     <t>cc</t>
+  </si>
+  <si>
+    <t>deli</t>
+  </si>
+  <si>
+    <t>ak</t>
+  </si>
+  <si>
+    <t>bak</t>
+  </si>
+  <si>
+    <t>sak</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>yy</t>
   </si>
 </sst>
 </file>
@@ -165,6 +159,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -488,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,10 +498,10 @@
     <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -523,15 +521,8 @@
         <v>11</v>
       </c>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -542,22 +533,16 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -568,16 +553,16 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -588,20 +573,20 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{5657554C-5532-4739-808E-D3DA9FD39EDA}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{3E4F3508-0990-4592-814D-49FA30B16E39}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{4D1B6443-4700-4B41-9A3B-B360C8E0B88A}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{3E4F3508-0990-4592-814D-49FA30B16E39}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{5657554C-5532-4739-808E-D3DA9FD39EDA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
